--- a/PR. 2 Analyzer (1).xlsx
+++ b/PR. 2 Analyzer (1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="564" windowWidth="13116" windowHeight="5772"/>
+    <workbookView xWindow="516" yWindow="564" windowWidth="13116" windowHeight="5772" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Project Instructions" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,27 @@
     <sheet name="6.Timestamp" sheetId="9" r:id="rId8"/>
     <sheet name="7.High value customers" sheetId="10" r:id="rId9"/>
     <sheet name="8.Pivot Tabe" sheetId="11" r:id="rId10"/>
-    <sheet name="9.Charts" sheetId="12" r:id="rId11"/>
+    <sheet name="9.Charts" sheetId="13" r:id="rId11"/>
+    <sheet name="10.Dashboard" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.effect on profit'!$A$2:$A$201</definedName>
+    <definedName name="sales_vs_profit">'3.sales_vs_profit'!$A$1:$B$19</definedName>
+    <definedName name="Slicer_Order_Date">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId14"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -68,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="136">
   <si>
     <t>PR. 2 Analyzer</t>
   </si>
@@ -550,6 +561,9 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
 </sst>
 </file>
 
@@ -788,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +851,9 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,9 +1093,33 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable1</c:name>
-    <c:fmtId val="2"/>
+    <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>Region</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+              <a:t> wise Product Sale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1111,10 +1152,203 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -1133,6 +1367,28 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -1196,6 +1452,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -1259,6 +1535,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -1322,6 +1618,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -1385,6 +1701,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -1435,18 +1771,20 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209690624"/>
-        <c:axId val="218560000"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="142750080"/>
+        <c:axId val="142751616"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="209690624"/>
+        <c:axId val="142750080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1793,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218560000"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="142751616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,26 +1811,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218560000"/>
+        <c:axId val="142751616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209690624"/>
+        <c:crossAx val="142750080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75775907321929581"/>
+          <c:y val="3.6730945821854911E-2"/>
+          <c:w val="0.2221259842519685"/>
+          <c:h val="0.2406545772687505"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1500,7 +1866,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -1520,29 +1885,37 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable1</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+              <a:t> VS Profit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-IN" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1553,58 +1926,74 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.Pivot Tabe'!$B$1:$B$2</c:f>
+              <c:f>'3.sales_vs_profit'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Books</c:v>
+                  <c:v>Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.sales_vs_profit'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Central</c:v>
+                  <c:v>1036.0899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>East</c:v>
+                  <c:v>1101.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>North</c:v>
+                  <c:v>713.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
+                  <c:v>760.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>West</c:v>
+                  <c:v>847</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.Pivot Tabe'!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11297.150000000001</c:v>
+                <c:pt idx="5">
+                  <c:v>965.64</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11389.090000000002</c:v>
+                <c:pt idx="6">
+                  <c:v>1317.53</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8037.0100000000011</c:v>
+                <c:pt idx="7">
+                  <c:v>1074.47</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9588.0400000000009</c:v>
+                <c:pt idx="8">
+                  <c:v>737.31</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6691.17</c:v>
+                <c:pt idx="9">
+                  <c:v>501.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1572.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1343.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>822.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1191.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>521.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1502.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>877.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>636.70000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,247 +2005,74 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8.Pivot Tabe'!$C$1:$C$2</c:f>
+              <c:f>'3.sales_vs_profit'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clothing</c:v>
+                  <c:v>profit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.sales_vs_profit'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Central</c:v>
+                  <c:v>331.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>East</c:v>
+                  <c:v>440.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>North</c:v>
+                  <c:v>285.33999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>South</c:v>
+                  <c:v>161.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>West</c:v>
+                  <c:v>271.04000000000002</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.Pivot Tabe'!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12200.26</c:v>
+                <c:pt idx="5">
+                  <c:v>304.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2401.4499999999998</c:v>
+                <c:pt idx="6">
+                  <c:v>312.91000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8422.82</c:v>
+                <c:pt idx="7">
+                  <c:v>300.85000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8393.630000000001</c:v>
+                <c:pt idx="8">
+                  <c:v>350.22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>10509.429999999998</c:v>
+                <c:pt idx="9">
+                  <c:v>150.34927447024432</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Electronics</c:v>
+                <c:pt idx="10">
+                  <c:v>260.01296919487083</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Central</c:v>
+                <c:pt idx="11">
+                  <c:v>438.75870858666553</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
+                <c:pt idx="12">
+                  <c:v>475.0922242481347</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>North</c:v>
+                <c:pt idx="13">
+                  <c:v>348.55067162395108</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>South</c:v>
+                <c:pt idx="14">
+                  <c:v>321.52615469172071</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>West</c:v>
+                <c:pt idx="15">
+                  <c:v>118.87219413940113</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.Pivot Tabe'!$D$3:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6621.24</c:v>
+                <c:pt idx="16">
+                  <c:v>380.54131749797142</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2869.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8191.7099999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11989.070000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11372.44</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Furniture</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>North</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>West</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.Pivot Tabe'!$E$3:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4876.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7592.3399999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6978.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7982.73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9182.7800000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Office Supplies</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Central</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>East</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>North</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>South</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>West</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8.Pivot Tabe'!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8472.7199999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8189.2200000000012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3345.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2295.3199999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6327.76</c:v>
+                <c:pt idx="17">
+                  <c:v>289.72996567385479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,11 +2089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221010176"/>
-        <c:axId val="221016064"/>
+        <c:axId val="142917632"/>
+        <c:axId val="142919168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221010176"/>
+        <c:axId val="142917632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +2102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221016064"/>
+        <c:crossAx val="142919168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,25 +2110,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221016064"/>
+        <c:axId val="142919168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221010176"/>
+        <c:crossAx val="142917632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85358289588801395"/>
+          <c:y val="0.82831984543598713"/>
+          <c:w val="0.146417104111986"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1924,17 +2154,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1952,13 +2171,251 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable1</c:name>
-    <c:fmtId val="4"/>
+    <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable2</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> by Product</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.Pivot Tabe'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8.Pivot Tabe'!$A$11:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.Pivot Tabe'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47002.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41927.589999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41044.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36612.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28630.819999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable1</c:name>
+    <c:fmtId val="11"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>Region</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+              <a:t> wise Product Sale</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
@@ -1992,11 +2449,470 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2011,7 +2927,29 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -2074,7 +3012,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -2137,7 +3095,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -2200,7 +3178,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -2263,7 +3261,27 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="25"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'8.Pivot Tabe'!$A$3:$A$8</c:f>
@@ -2314,20 +3332,84 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="172983424"/>
+        <c:axId val="172984960"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="172983424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172984960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172984960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172983424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75775907321929581"/>
+          <c:y val="3.6730945821854911E-2"/>
+          <c:w val="0.18116051226355326"/>
+          <c:h val="0.35519909000483413"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2345,7 +3427,573 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" baseline="0"/>
+              <a:t> VS Profit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-IN" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10848840769903761"/>
+          <c:y val="5.9946171578723256E-2"/>
+          <c:w val="0.70620559930008753"/>
+          <c:h val="0.83458874142291917"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.sales_vs_profit'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.sales_vs_profit'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1036.0899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1101.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>760.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>965.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1317.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1074.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>737.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>501.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1572.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1343.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>822.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1191.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>521.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1502.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>877.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>636.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.sales_vs_profit'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.sales_vs_profit'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>331.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.34927447024432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260.01296919487083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>438.75870858666553</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>475.0922242481347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>348.55067162395108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.52615469172071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118.87219413940113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380.54131749797142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>289.72996567385479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="233518976"/>
+        <c:axId val="233520512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="233518976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233520512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233520512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233518976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85358289588801395"/>
+          <c:y val="0.82831984543598713"/>
+          <c:w val="0.146417104111986"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PR. 2 Analyzer (1).xlsx]8.Pivot Tabe!PivotTable2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> by Product</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8.Pivot Tabe'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8.Pivot Tabe'!$A$11:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Office Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8.Pivot Tabe'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>47002.460000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41927.589999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41044.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36612.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28630.819999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -2357,20 +4005,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="region_wise_product_sale"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2387,20 +4037,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="sales_vs_profit"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2417,20 +4069,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="product_wise_sale"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2442,6 +4096,179 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="region_wise_product_sale"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="sales_vs_profit"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="product_wise_sale"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Order_Date"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Order_Date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4846320" y="3192780"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers can be used in at least Excel 2010.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2487,7 +4314,156 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.2"/>
     </cacheField>
     <cacheField name="Order_Date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-10T00:00:00" maxDate="2025-04-08T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-04-10T00:00:00" maxDate="2025-04-08T00:00:00" count="148">
+        <d v="2024-04-10T00:00:00"/>
+        <d v="2024-04-11T00:00:00"/>
+        <d v="2024-04-14T00:00:00"/>
+        <d v="2024-04-15T00:00:00"/>
+        <d v="2024-04-16T00:00:00"/>
+        <d v="2024-04-19T00:00:00"/>
+        <d v="2024-04-20T00:00:00"/>
+        <d v="2024-04-22T00:00:00"/>
+        <d v="2024-04-24T00:00:00"/>
+        <d v="2024-04-27T00:00:00"/>
+        <d v="2024-04-28T00:00:00"/>
+        <d v="2024-04-29T00:00:00"/>
+        <d v="2024-04-30T00:00:00"/>
+        <d v="2024-05-02T00:00:00"/>
+        <d v="2024-05-03T00:00:00"/>
+        <d v="2024-05-04T00:00:00"/>
+        <d v="2024-05-06T00:00:00"/>
+        <d v="2024-05-08T00:00:00"/>
+        <d v="2024-05-10T00:00:00"/>
+        <d v="2024-05-14T00:00:00"/>
+        <d v="2024-05-15T00:00:00"/>
+        <d v="2024-05-16T00:00:00"/>
+        <d v="2024-05-17T00:00:00"/>
+        <d v="2024-05-22T00:00:00"/>
+        <d v="2024-05-23T00:00:00"/>
+        <d v="2024-06-02T00:00:00"/>
+        <d v="2024-06-04T00:00:00"/>
+        <d v="2024-06-05T00:00:00"/>
+        <d v="2024-06-06T00:00:00"/>
+        <d v="2024-06-07T00:00:00"/>
+        <d v="2024-06-08T00:00:00"/>
+        <d v="2024-06-14T00:00:00"/>
+        <d v="2024-06-18T00:00:00"/>
+        <d v="2024-06-20T00:00:00"/>
+        <d v="2024-06-21T00:00:00"/>
+        <d v="2024-06-23T00:00:00"/>
+        <d v="2024-06-25T00:00:00"/>
+        <d v="2024-06-27T00:00:00"/>
+        <d v="2024-06-28T00:00:00"/>
+        <d v="2024-06-30T00:00:00"/>
+        <d v="2024-07-05T00:00:00"/>
+        <d v="2024-07-06T00:00:00"/>
+        <d v="2024-07-08T00:00:00"/>
+        <d v="2024-07-09T00:00:00"/>
+        <d v="2024-07-14T00:00:00"/>
+        <d v="2024-07-15T00:00:00"/>
+        <d v="2024-07-21T00:00:00"/>
+        <d v="2024-07-29T00:00:00"/>
+        <d v="2024-07-30T00:00:00"/>
+        <d v="2024-07-31T00:00:00"/>
+        <d v="2024-08-05T00:00:00"/>
+        <d v="2024-08-08T00:00:00"/>
+        <d v="2024-08-09T00:00:00"/>
+        <d v="2024-08-15T00:00:00"/>
+        <d v="2024-08-18T00:00:00"/>
+        <d v="2024-08-19T00:00:00"/>
+        <d v="2024-08-22T00:00:00"/>
+        <d v="2024-08-30T00:00:00"/>
+        <d v="2024-09-01T00:00:00"/>
+        <d v="2024-09-09T00:00:00"/>
+        <d v="2024-09-11T00:00:00"/>
+        <d v="2024-09-12T00:00:00"/>
+        <d v="2024-09-14T00:00:00"/>
+        <d v="2024-09-16T00:00:00"/>
+        <d v="2024-09-17T00:00:00"/>
+        <d v="2024-09-18T00:00:00"/>
+        <d v="2024-09-22T00:00:00"/>
+        <d v="2024-09-23T00:00:00"/>
+        <d v="2024-09-24T00:00:00"/>
+        <d v="2024-09-29T00:00:00"/>
+        <d v="2024-09-30T00:00:00"/>
+        <d v="2024-10-02T00:00:00"/>
+        <d v="2024-10-05T00:00:00"/>
+        <d v="2024-10-10T00:00:00"/>
+        <d v="2024-10-12T00:00:00"/>
+        <d v="2024-10-15T00:00:00"/>
+        <d v="2024-10-16T00:00:00"/>
+        <d v="2024-10-17T00:00:00"/>
+        <d v="2024-10-19T00:00:00"/>
+        <d v="2024-10-20T00:00:00"/>
+        <d v="2024-10-28T00:00:00"/>
+        <d v="2024-10-30T00:00:00"/>
+        <d v="2024-11-01T00:00:00"/>
+        <d v="2024-11-03T00:00:00"/>
+        <d v="2024-11-09T00:00:00"/>
+        <d v="2024-11-12T00:00:00"/>
+        <d v="2024-11-15T00:00:00"/>
+        <d v="2024-11-16T00:00:00"/>
+        <d v="2024-11-17T00:00:00"/>
+        <d v="2024-11-19T00:00:00"/>
+        <d v="2024-11-20T00:00:00"/>
+        <d v="2024-11-26T00:00:00"/>
+        <d v="2024-11-28T00:00:00"/>
+        <d v="2024-11-29T00:00:00"/>
+        <d v="2024-11-30T00:00:00"/>
+        <d v="2024-12-04T00:00:00"/>
+        <d v="2024-12-05T00:00:00"/>
+        <d v="2024-12-12T00:00:00"/>
+        <d v="2024-12-14T00:00:00"/>
+        <d v="2024-12-20T00:00:00"/>
+        <d v="2024-12-21T00:00:00"/>
+        <d v="2024-12-24T00:00:00"/>
+        <d v="2024-12-25T00:00:00"/>
+        <d v="2024-12-30T00:00:00"/>
+        <d v="2025-01-01T00:00:00"/>
+        <d v="2025-01-02T00:00:00"/>
+        <d v="2025-01-03T00:00:00"/>
+        <d v="2025-01-06T00:00:00"/>
+        <d v="2025-01-10T00:00:00"/>
+        <d v="2025-01-12T00:00:00"/>
+        <d v="2025-01-13T00:00:00"/>
+        <d v="2025-01-16T00:00:00"/>
+        <d v="2025-01-17T00:00:00"/>
+        <d v="2025-01-20T00:00:00"/>
+        <d v="2025-01-21T00:00:00"/>
+        <d v="2025-01-27T00:00:00"/>
+        <d v="2025-02-02T00:00:00"/>
+        <d v="2025-02-04T00:00:00"/>
+        <d v="2025-02-05T00:00:00"/>
+        <d v="2025-02-07T00:00:00"/>
+        <d v="2025-02-10T00:00:00"/>
+        <d v="2025-02-15T00:00:00"/>
+        <d v="2025-02-17T00:00:00"/>
+        <d v="2025-02-19T00:00:00"/>
+        <d v="2025-02-20T00:00:00"/>
+        <d v="2025-02-21T00:00:00"/>
+        <d v="2025-02-24T00:00:00"/>
+        <d v="2025-02-25T00:00:00"/>
+        <d v="2025-02-27T00:00:00"/>
+        <d v="2025-03-01T00:00:00"/>
+        <d v="2025-03-02T00:00:00"/>
+        <d v="2025-03-05T00:00:00"/>
+        <d v="2025-03-08T00:00:00"/>
+        <d v="2025-03-09T00:00:00"/>
+        <d v="2025-03-10T00:00:00"/>
+        <d v="2025-03-11T00:00:00"/>
+        <d v="2025-03-17T00:00:00"/>
+        <d v="2025-03-18T00:00:00"/>
+        <d v="2025-03-20T00:00:00"/>
+        <d v="2025-03-22T00:00:00"/>
+        <d v="2025-03-25T00:00:00"/>
+        <d v="2025-03-26T00:00:00"/>
+        <d v="2025-03-27T00:00:00"/>
+        <d v="2025-03-29T00:00:00"/>
+        <d v="2025-03-30T00:00:00"/>
+        <d v="2025-04-02T00:00:00"/>
+        <d v="2025-04-05T00:00:00"/>
+        <d v="2025-04-07T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Profit" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.63" maxValue="769.46"/>
@@ -2496,7 +4472,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2512,7 +4488,7 @@
     <n v="1036.0899999999999"/>
     <n v="4"/>
     <n v="0.2"/>
-    <d v="2024-04-10T00:00:00"/>
+    <x v="0"/>
     <n v="331.55"/>
   </r>
   <r>
@@ -2523,7 +4499,7 @@
     <n v="1101.28"/>
     <n v="3"/>
     <n v="0.2"/>
-    <d v="2024-04-11T00:00:00"/>
+    <x v="1"/>
     <n v="440.51"/>
   </r>
   <r>
@@ -2534,7 +4510,7 @@
     <n v="713.34"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-04-14T00:00:00"/>
+    <x v="2"/>
     <n v="285.33999999999997"/>
   </r>
   <r>
@@ -2545,7 +4521,7 @@
     <n v="760.93"/>
     <n v="4"/>
     <n v="0.15"/>
-    <d v="2024-04-14T00:00:00"/>
+    <x v="2"/>
     <n v="161.69999999999999"/>
   </r>
   <r>
@@ -2556,7 +4532,7 @@
     <n v="847"/>
     <n v="12"/>
     <n v="0.2"/>
-    <d v="2024-04-15T00:00:00"/>
+    <x v="3"/>
     <n v="271.04000000000002"/>
   </r>
   <r>
@@ -2567,7 +4543,7 @@
     <n v="965.64"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2024-04-16T00:00:00"/>
+    <x v="4"/>
     <n v="304.18"/>
   </r>
   <r>
@@ -2578,7 +4554,7 @@
     <n v="1317.53"/>
     <n v="12"/>
     <n v="0.05"/>
-    <d v="2024-04-16T00:00:00"/>
+    <x v="4"/>
     <n v="312.91000000000003"/>
   </r>
   <r>
@@ -2589,7 +4565,7 @@
     <n v="1074.47"/>
     <n v="6"/>
     <n v="0.2"/>
-    <d v="2024-04-19T00:00:00"/>
+    <x v="5"/>
     <n v="300.85000000000002"/>
   </r>
   <r>
@@ -2600,7 +4576,7 @@
     <n v="737.31"/>
     <n v="2"/>
     <n v="0.05"/>
-    <d v="2024-04-19T00:00:00"/>
+    <x v="5"/>
     <n v="350.22"/>
   </r>
   <r>
@@ -2611,7 +4587,7 @@
     <n v="501.54"/>
     <n v="11"/>
     <n v="0.05"/>
-    <d v="2024-04-19T00:00:00"/>
+    <x v="5"/>
     <n v="190.59"/>
   </r>
   <r>
@@ -2622,7 +4598,7 @@
     <n v="1572.82"/>
     <n v="6"/>
     <n v="0.05"/>
-    <d v="2024-04-20T00:00:00"/>
+    <x v="6"/>
     <n v="672.38"/>
   </r>
   <r>
@@ -2633,7 +4609,7 @@
     <n v="1343.13"/>
     <n v="14"/>
     <n v="0.15"/>
-    <d v="2024-04-22T00:00:00"/>
+    <x v="7"/>
     <n v="456.66"/>
   </r>
   <r>
@@ -2644,7 +4620,7 @@
     <n v="822.28"/>
     <n v="7"/>
     <n v="0.05"/>
-    <d v="2024-04-24T00:00:00"/>
+    <x v="8"/>
     <n v="273.41000000000003"/>
   </r>
   <r>
@@ -2655,7 +4631,7 @@
     <n v="1191.58"/>
     <n v="14"/>
     <n v="0.05"/>
-    <d v="2024-04-24T00:00:00"/>
+    <x v="8"/>
     <n v="452.8"/>
   </r>
   <r>
@@ -2666,7 +4642,7 @@
     <n v="521.66999999999996"/>
     <n v="15"/>
     <n v="0.15"/>
-    <d v="2024-04-27T00:00:00"/>
+    <x v="9"/>
     <n v="155.19999999999999"/>
   </r>
   <r>
@@ -2677,7 +4653,7 @@
     <n v="1502.93"/>
     <n v="14"/>
     <n v="0.2"/>
-    <d v="2024-04-28T00:00:00"/>
+    <x v="10"/>
     <n v="300.58999999999997"/>
   </r>
   <r>
@@ -2688,7 +4664,7 @@
     <n v="877.58"/>
     <n v="10"/>
     <n v="0.15"/>
-    <d v="2024-04-29T00:00:00"/>
+    <x v="11"/>
     <n v="298.38"/>
   </r>
   <r>
@@ -2699,7 +4675,7 @@
     <n v="636.70000000000005"/>
     <n v="4"/>
     <n v="0.2"/>
-    <d v="2024-04-29T00:00:00"/>
+    <x v="11"/>
     <n v="203.74"/>
   </r>
   <r>
@@ -2710,7 +4686,7 @@
     <n v="1506.14"/>
     <n v="13"/>
     <n v="0.2"/>
-    <d v="2024-04-30T00:00:00"/>
+    <x v="12"/>
     <n v="481.96"/>
   </r>
   <r>
@@ -2721,7 +4697,7 @@
     <n v="645.02"/>
     <n v="4"/>
     <n v="0"/>
-    <d v="2024-05-02T00:00:00"/>
+    <x v="13"/>
     <n v="161.26"/>
   </r>
   <r>
@@ -2732,7 +4708,7 @@
     <n v="953.3"/>
     <n v="11"/>
     <n v="0"/>
-    <d v="2024-05-03T00:00:00"/>
+    <x v="14"/>
     <n v="476.65"/>
   </r>
   <r>
@@ -2743,7 +4719,7 @@
     <n v="706.37"/>
     <n v="6"/>
     <n v="0"/>
-    <d v="2024-05-04T00:00:00"/>
+    <x v="15"/>
     <n v="176.59"/>
   </r>
   <r>
@@ -2754,7 +4730,7 @@
     <n v="388.56"/>
     <n v="14"/>
     <n v="0.15"/>
-    <d v="2024-05-04T00:00:00"/>
+    <x v="15"/>
     <n v="82.57"/>
   </r>
   <r>
@@ -2765,7 +4741,7 @@
     <n v="743.17"/>
     <n v="9"/>
     <n v="0"/>
-    <d v="2024-05-04T00:00:00"/>
+    <x v="15"/>
     <n v="297.27"/>
   </r>
   <r>
@@ -2776,7 +4752,7 @@
     <n v="925.31"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2024-05-06T00:00:00"/>
+    <x v="16"/>
     <n v="374.75"/>
   </r>
   <r>
@@ -2787,7 +4763,7 @@
     <n v="1173.1199999999999"/>
     <n v="18"/>
     <n v="0"/>
-    <d v="2024-05-06T00:00:00"/>
+    <x v="16"/>
     <n v="293.27999999999997"/>
   </r>
   <r>
@@ -2798,7 +4774,7 @@
     <n v="675.54"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-05-08T00:00:00"/>
+    <x v="17"/>
     <n v="236.44"/>
   </r>
   <r>
@@ -2809,7 +4785,7 @@
     <n v="939.09"/>
     <n v="2"/>
     <n v="0.05"/>
-    <d v="2024-05-10T00:00:00"/>
+    <x v="18"/>
     <n v="356.85"/>
   </r>
   <r>
@@ -2820,7 +4796,7 @@
     <n v="983.34"/>
     <n v="19"/>
     <n v="0.1"/>
-    <d v="2024-05-14T00:00:00"/>
+    <x v="19"/>
     <n v="398.25"/>
   </r>
   <r>
@@ -2831,7 +4807,7 @@
     <n v="801.21"/>
     <n v="3"/>
     <n v="0.2"/>
-    <d v="2024-05-14T00:00:00"/>
+    <x v="19"/>
     <n v="160.24"/>
   </r>
   <r>
@@ -2842,7 +4818,7 @@
     <n v="1450.71"/>
     <n v="5"/>
     <n v="0.1"/>
-    <d v="2024-05-15T00:00:00"/>
+    <x v="20"/>
     <n v="326.41000000000003"/>
   </r>
   <r>
@@ -2853,7 +4829,7 @@
     <n v="1023.21"/>
     <n v="18"/>
     <n v="0.05"/>
-    <d v="2024-05-16T00:00:00"/>
+    <x v="21"/>
     <n v="388.82"/>
   </r>
   <r>
@@ -2864,7 +4840,7 @@
     <n v="853.72"/>
     <n v="5"/>
     <n v="0.15"/>
-    <d v="2024-05-16T00:00:00"/>
+    <x v="21"/>
     <n v="253.98"/>
   </r>
   <r>
@@ -2875,7 +4851,7 @@
     <n v="967.89"/>
     <n v="10"/>
     <n v="0.1"/>
-    <d v="2024-05-17T00:00:00"/>
+    <x v="22"/>
     <n v="217.78"/>
   </r>
   <r>
@@ -2886,7 +4862,7 @@
     <n v="840.92"/>
     <n v="9"/>
     <n v="0.05"/>
-    <d v="2024-05-17T00:00:00"/>
+    <x v="22"/>
     <n v="359.49"/>
   </r>
   <r>
@@ -2897,7 +4873,7 @@
     <n v="1200.9000000000001"/>
     <n v="14"/>
     <n v="0.05"/>
-    <d v="2024-05-17T00:00:00"/>
+    <x v="22"/>
     <n v="513.38"/>
   </r>
   <r>
@@ -2908,7 +4884,7 @@
     <n v="472.38"/>
     <n v="12"/>
     <n v="0.2"/>
-    <d v="2024-05-17T00:00:00"/>
+    <x v="22"/>
     <n v="151.16"/>
   </r>
   <r>
@@ -2919,7 +4895,7 @@
     <n v="1410.06"/>
     <n v="11"/>
     <n v="0.05"/>
-    <d v="2024-05-22T00:00:00"/>
+    <x v="23"/>
     <n v="468.84"/>
   </r>
   <r>
@@ -2930,7 +4906,7 @@
     <n v="773.09"/>
     <n v="13"/>
     <n v="0.15"/>
-    <d v="2024-05-22T00:00:00"/>
+    <x v="23"/>
     <n v="229.99"/>
   </r>
   <r>
@@ -2941,7 +4917,7 @@
     <n v="580.42999999999995"/>
     <n v="19"/>
     <n v="0.15"/>
-    <d v="2024-05-23T00:00:00"/>
+    <x v="24"/>
     <n v="197.35"/>
   </r>
   <r>
@@ -2952,7 +4928,7 @@
     <n v="1151.21"/>
     <n v="15"/>
     <n v="0.1"/>
-    <d v="2024-06-02T00:00:00"/>
+    <x v="25"/>
     <n v="414.44"/>
   </r>
   <r>
@@ -2963,7 +4939,7 @@
     <n v="1025.98"/>
     <n v="5"/>
     <n v="0.2"/>
-    <d v="2024-06-04T00:00:00"/>
+    <x v="26"/>
     <n v="369.35"/>
   </r>
   <r>
@@ -2974,7 +4950,7 @@
     <n v="556.41999999999996"/>
     <n v="11"/>
     <n v="0.15"/>
-    <d v="2024-06-04T00:00:00"/>
+    <x v="26"/>
     <n v="212.83"/>
   </r>
   <r>
@@ -2985,7 +4961,7 @@
     <n v="1227.25"/>
     <n v="12"/>
     <n v="0.15"/>
-    <d v="2024-06-05T00:00:00"/>
+    <x v="27"/>
     <n v="365.11"/>
   </r>
   <r>
@@ -2996,7 +4972,7 @@
     <n v="840.85"/>
     <n v="19"/>
     <n v="0.1"/>
-    <d v="2024-06-05T00:00:00"/>
+    <x v="27"/>
     <n v="302.70999999999998"/>
   </r>
   <r>
@@ -3007,7 +4983,7 @@
     <n v="1225.42"/>
     <n v="8"/>
     <n v="0.15"/>
-    <d v="2024-06-06T00:00:00"/>
+    <x v="28"/>
     <n v="468.72"/>
   </r>
   <r>
@@ -3018,7 +4994,7 @@
     <n v="856.7"/>
     <n v="2"/>
     <n v="0"/>
-    <d v="2024-06-06T00:00:00"/>
+    <x v="28"/>
     <n v="214.18"/>
   </r>
   <r>
@@ -3029,7 +5005,7 @@
     <n v="1001.57"/>
     <n v="12"/>
     <n v="0"/>
-    <d v="2024-06-07T00:00:00"/>
+    <x v="29"/>
     <n v="450.71"/>
   </r>
   <r>
@@ -3040,7 +5016,7 @@
     <n v="1186.8499999999999"/>
     <n v="19"/>
     <n v="0.2"/>
-    <d v="2024-06-08T00:00:00"/>
+    <x v="30"/>
     <n v="332.32"/>
   </r>
   <r>
@@ -3051,7 +5027,7 @@
     <n v="775.45"/>
     <n v="6"/>
     <n v="0.1"/>
-    <d v="2024-06-14T00:00:00"/>
+    <x v="31"/>
     <n v="174.48"/>
   </r>
   <r>
@@ -3062,7 +5038,7 @@
     <n v="1021.47"/>
     <n v="6"/>
     <n v="0.05"/>
-    <d v="2024-06-18T00:00:00"/>
+    <x v="32"/>
     <n v="242.6"/>
   </r>
   <r>
@@ -3073,7 +5049,7 @@
     <n v="1226.6199999999999"/>
     <n v="7"/>
     <n v="0.1"/>
-    <d v="2024-06-20T00:00:00"/>
+    <x v="33"/>
     <n v="551.98"/>
   </r>
   <r>
@@ -3084,7 +5060,7 @@
     <n v="1086.93"/>
     <n v="2"/>
     <n v="0"/>
-    <d v="2024-06-21T00:00:00"/>
+    <x v="34"/>
     <n v="380.43"/>
   </r>
   <r>
@@ -3095,7 +5071,7 @@
     <n v="942.9"/>
     <n v="18"/>
     <n v="0.1"/>
-    <d v="2024-06-23T00:00:00"/>
+    <x v="35"/>
     <n v="339.44"/>
   </r>
   <r>
@@ -3106,7 +5082,7 @@
     <n v="818.8"/>
     <n v="15"/>
     <n v="0.15"/>
-    <d v="2024-06-25T00:00:00"/>
+    <x v="36"/>
     <n v="173.99"/>
   </r>
   <r>
@@ -3117,7 +5093,7 @@
     <n v="919.04"/>
     <n v="10"/>
     <n v="0.2"/>
-    <d v="2024-06-25T00:00:00"/>
+    <x v="36"/>
     <n v="257.33"/>
   </r>
   <r>
@@ -3128,7 +5104,7 @@
     <n v="973.26"/>
     <n v="11"/>
     <n v="0"/>
-    <d v="2024-06-27T00:00:00"/>
+    <x v="37"/>
     <n v="389.3"/>
   </r>
   <r>
@@ -3139,7 +5115,7 @@
     <n v="741.61"/>
     <n v="1"/>
     <n v="0.2"/>
-    <d v="2024-06-28T00:00:00"/>
+    <x v="38"/>
     <n v="148.32"/>
   </r>
   <r>
@@ -3150,7 +5126,7 @@
     <n v="1360.36"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-06-30T00:00:00"/>
+    <x v="39"/>
     <n v="680.18"/>
   </r>
   <r>
@@ -3161,7 +5137,7 @@
     <n v="1248.82"/>
     <n v="2"/>
     <n v="0.1"/>
-    <d v="2024-06-30T00:00:00"/>
+    <x v="39"/>
     <n v="449.58"/>
   </r>
   <r>
@@ -3172,7 +5148,7 @@
     <n v="1383.3"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2024-07-05T00:00:00"/>
+    <x v="40"/>
     <n v="497.99"/>
   </r>
   <r>
@@ -3183,7 +5159,7 @@
     <n v="488.99"/>
     <n v="9"/>
     <n v="0"/>
-    <d v="2024-07-06T00:00:00"/>
+    <x v="41"/>
     <n v="220.05"/>
   </r>
   <r>
@@ -3194,7 +5170,7 @@
     <n v="933.71"/>
     <n v="17"/>
     <n v="0.1"/>
-    <d v="2024-07-08T00:00:00"/>
+    <x v="42"/>
     <n v="294.12"/>
   </r>
   <r>
@@ -3205,7 +5181,7 @@
     <n v="1005.53"/>
     <n v="17"/>
     <n v="0.2"/>
-    <d v="2024-07-08T00:00:00"/>
+    <x v="42"/>
     <n v="201.11"/>
   </r>
   <r>
@@ -3216,7 +5192,7 @@
     <n v="1100.0999999999999"/>
     <n v="5"/>
     <n v="0.05"/>
-    <d v="2024-07-09T00:00:00"/>
+    <x v="43"/>
     <n v="261.27"/>
   </r>
   <r>
@@ -3227,7 +5203,7 @@
     <n v="1034.7"/>
     <n v="15"/>
     <n v="0.15"/>
-    <d v="2024-07-14T00:00:00"/>
+    <x v="44"/>
     <n v="307.82"/>
   </r>
   <r>
@@ -3238,7 +5214,7 @@
     <n v="1371.34"/>
     <n v="5"/>
     <n v="0.05"/>
-    <d v="2024-07-15T00:00:00"/>
+    <x v="45"/>
     <n v="455.97"/>
   </r>
   <r>
@@ -3249,7 +5225,7 @@
     <n v="876.44"/>
     <n v="12"/>
     <n v="0.05"/>
-    <d v="2024-07-15T00:00:00"/>
+    <x v="45"/>
     <n v="333.05"/>
   </r>
   <r>
@@ -3260,7 +5236,7 @@
     <n v="1020.26"/>
     <n v="11"/>
     <n v="0.05"/>
-    <d v="2024-07-21T00:00:00"/>
+    <x v="46"/>
     <n v="242.31"/>
   </r>
   <r>
@@ -3271,7 +5247,7 @@
     <n v="804.81"/>
     <n v="1"/>
     <n v="0.05"/>
-    <d v="2024-07-29T00:00:00"/>
+    <x v="47"/>
     <n v="344.06"/>
   </r>
   <r>
@@ -3282,7 +5258,7 @@
     <n v="608.66"/>
     <n v="1"/>
     <n v="0.05"/>
-    <d v="2024-07-30T00:00:00"/>
+    <x v="48"/>
     <n v="144.56"/>
   </r>
   <r>
@@ -3293,7 +5269,7 @@
     <n v="981.2"/>
     <n v="19"/>
     <n v="0"/>
-    <d v="2024-07-31T00:00:00"/>
+    <x v="49"/>
     <n v="441.54"/>
   </r>
   <r>
@@ -3304,7 +5280,7 @@
     <n v="539.77"/>
     <n v="10"/>
     <n v="0.15"/>
-    <d v="2024-08-05T00:00:00"/>
+    <x v="50"/>
     <n v="114.7"/>
   </r>
   <r>
@@ -3315,7 +5291,7 @@
     <n v="804.45"/>
     <n v="5"/>
     <n v="0.2"/>
-    <d v="2024-08-05T00:00:00"/>
+    <x v="50"/>
     <n v="257.42"/>
   </r>
   <r>
@@ -3326,7 +5302,7 @@
     <n v="1526.6"/>
     <n v="13"/>
     <n v="0.2"/>
-    <d v="2024-08-08T00:00:00"/>
+    <x v="51"/>
     <n v="305.32"/>
   </r>
   <r>
@@ -3337,7 +5313,7 @@
     <n v="1215.26"/>
     <n v="5"/>
     <n v="0.15"/>
-    <d v="2024-08-09T00:00:00"/>
+    <x v="52"/>
     <n v="258.24"/>
   </r>
   <r>
@@ -3348,7 +5324,7 @@
     <n v="1261.3399999999999"/>
     <n v="3"/>
     <n v="0"/>
-    <d v="2024-08-15T00:00:00"/>
+    <x v="53"/>
     <n v="441.47"/>
   </r>
   <r>
@@ -3359,7 +5335,7 @@
     <n v="518.07000000000005"/>
     <n v="7"/>
     <n v="0.05"/>
-    <d v="2024-08-18T00:00:00"/>
+    <x v="54"/>
     <n v="172.26"/>
   </r>
   <r>
@@ -3370,7 +5346,7 @@
     <n v="1111.3399999999999"/>
     <n v="1"/>
     <n v="0"/>
-    <d v="2024-08-19T00:00:00"/>
+    <x v="55"/>
     <n v="500.1"/>
   </r>
   <r>
@@ -3381,7 +5357,7 @@
     <n v="1291.47"/>
     <n v="18"/>
     <n v="0.1"/>
-    <d v="2024-08-22T00:00:00"/>
+    <x v="56"/>
     <n v="581.16"/>
   </r>
   <r>
@@ -3392,7 +5368,7 @@
     <n v="1143.69"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-08-30T00:00:00"/>
+    <x v="57"/>
     <n v="400.29"/>
   </r>
   <r>
@@ -3403,7 +5379,7 @@
     <n v="679.71"/>
     <n v="19"/>
     <n v="0"/>
-    <d v="2024-08-30T00:00:00"/>
+    <x v="57"/>
     <n v="271.88"/>
   </r>
   <r>
@@ -3414,7 +5390,7 @@
     <n v="790.08"/>
     <n v="7"/>
     <n v="0.1"/>
-    <d v="2024-09-01T00:00:00"/>
+    <x v="58"/>
     <n v="177.77"/>
   </r>
   <r>
@@ -3425,7 +5401,7 @@
     <n v="1070.68"/>
     <n v="7"/>
     <n v="0.05"/>
-    <d v="2024-09-01T00:00:00"/>
+    <x v="58"/>
     <n v="406.86"/>
   </r>
   <r>
@@ -3436,7 +5412,7 @@
     <n v="1168.8900000000001"/>
     <n v="4"/>
     <n v="0.1"/>
-    <d v="2024-09-09T00:00:00"/>
+    <x v="59"/>
     <n v="526"/>
   </r>
   <r>
@@ -3447,7 +5423,7 @@
     <n v="1335.87"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-09-09T00:00:00"/>
+    <x v="59"/>
     <n v="333.97"/>
   </r>
   <r>
@@ -3458,7 +5434,7 @@
     <n v="873.7"/>
     <n v="9"/>
     <n v="0"/>
-    <d v="2024-09-11T00:00:00"/>
+    <x v="60"/>
     <n v="305.8"/>
   </r>
   <r>
@@ -3469,7 +5445,7 @@
     <n v="1443.98"/>
     <n v="19"/>
     <n v="0"/>
-    <d v="2024-09-12T00:00:00"/>
+    <x v="61"/>
     <n v="649.79"/>
   </r>
   <r>
@@ -3480,7 +5456,7 @@
     <n v="1154.33"/>
     <n v="11"/>
     <n v="0.15"/>
-    <d v="2024-09-14T00:00:00"/>
+    <x v="62"/>
     <n v="441.53"/>
   </r>
   <r>
@@ -3491,7 +5467,7 @@
     <n v="1264.49"/>
     <n v="16"/>
     <n v="0.05"/>
-    <d v="2024-09-14T00:00:00"/>
+    <x v="62"/>
     <n v="480.51"/>
   </r>
   <r>
@@ -3502,7 +5478,7 @@
     <n v="1101.55"/>
     <n v="4"/>
     <n v="0.1"/>
-    <d v="2024-09-16T00:00:00"/>
+    <x v="63"/>
     <n v="346.99"/>
   </r>
   <r>
@@ -3513,7 +5489,7 @@
     <n v="875.41"/>
     <n v="13"/>
     <n v="0.15"/>
-    <d v="2024-09-17T00:00:00"/>
+    <x v="64"/>
     <n v="334.84"/>
   </r>
   <r>
@@ -3524,7 +5500,7 @@
     <n v="727.73"/>
     <n v="1"/>
     <n v="0.1"/>
-    <d v="2024-09-17T00:00:00"/>
+    <x v="64"/>
     <n v="229.23"/>
   </r>
   <r>
@@ -3535,7 +5511,7 @@
     <n v="1158.94"/>
     <n v="19"/>
     <n v="0.2"/>
-    <d v="2024-09-18T00:00:00"/>
+    <x v="65"/>
     <n v="231.79"/>
   </r>
   <r>
@@ -3546,7 +5522,7 @@
     <n v="966.3"/>
     <n v="2"/>
     <n v="0.15"/>
-    <d v="2024-09-22T00:00:00"/>
+    <x v="66"/>
     <n v="328.54"/>
   </r>
   <r>
@@ -3557,7 +5533,7 @@
     <n v="917.48"/>
     <n v="6"/>
     <n v="0"/>
-    <d v="2024-09-23T00:00:00"/>
+    <x v="67"/>
     <n v="366.99"/>
   </r>
   <r>
@@ -3568,7 +5544,7 @@
     <n v="1172.97"/>
     <n v="7"/>
     <n v="0.15"/>
-    <d v="2024-09-24T00:00:00"/>
+    <x v="68"/>
     <n v="348.96"/>
   </r>
   <r>
@@ -3579,7 +5555,7 @@
     <n v="1205.82"/>
     <n v="11"/>
     <n v="0.1"/>
-    <d v="2024-09-24T00:00:00"/>
+    <x v="68"/>
     <n v="542.62"/>
   </r>
   <r>
@@ -3590,7 +5566,7 @@
     <n v="826.93"/>
     <n v="10"/>
     <n v="0.2"/>
-    <d v="2024-09-29T00:00:00"/>
+    <x v="69"/>
     <n v="297.69"/>
   </r>
   <r>
@@ -3601,7 +5577,7 @@
     <n v="902.19"/>
     <n v="12"/>
     <n v="0"/>
-    <d v="2024-09-29T00:00:00"/>
+    <x v="69"/>
     <n v="451.1"/>
   </r>
   <r>
@@ -3612,7 +5588,7 @@
     <n v="585.97"/>
     <n v="17"/>
     <n v="0.1"/>
-    <d v="2024-09-30T00:00:00"/>
+    <x v="70"/>
     <n v="210.95"/>
   </r>
   <r>
@@ -3623,7 +5599,7 @@
     <n v="990.19"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2024-09-30T00:00:00"/>
+    <x v="70"/>
     <n v="445.59"/>
   </r>
   <r>
@@ -3634,7 +5610,7 @@
     <n v="1014.09"/>
     <n v="13"/>
     <n v="0.2"/>
-    <d v="2024-10-02T00:00:00"/>
+    <x v="71"/>
     <n v="202.82"/>
   </r>
   <r>
@@ -3645,7 +5621,7 @@
     <n v="925.29"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2024-10-05T00:00:00"/>
+    <x v="72"/>
     <n v="231.32"/>
   </r>
   <r>
@@ -3656,7 +5632,7 @@
     <n v="1286.54"/>
     <n v="8"/>
     <n v="0"/>
-    <d v="2024-10-10T00:00:00"/>
+    <x v="73"/>
     <n v="450.29"/>
   </r>
   <r>
@@ -3667,7 +5643,7 @@
     <n v="961.62"/>
     <n v="8"/>
     <n v="0.2"/>
-    <d v="2024-10-12T00:00:00"/>
+    <x v="74"/>
     <n v="307.72000000000003"/>
   </r>
   <r>
@@ -3678,7 +5654,7 @@
     <n v="1081.1400000000001"/>
     <n v="19"/>
     <n v="0.15"/>
-    <d v="2024-10-12T00:00:00"/>
+    <x v="74"/>
     <n v="367.59"/>
   </r>
   <r>
@@ -3689,7 +5665,7 @@
     <n v="1923.66"/>
     <n v="9"/>
     <n v="0.2"/>
-    <d v="2024-10-15T00:00:00"/>
+    <x v="75"/>
     <n v="769.46"/>
   </r>
   <r>
@@ -3700,7 +5676,7 @@
     <n v="728.71"/>
     <n v="14"/>
     <n v="0.1"/>
-    <d v="2024-10-16T00:00:00"/>
+    <x v="76"/>
     <n v="327.92"/>
   </r>
   <r>
@@ -3711,7 +5687,7 @@
     <n v="1301.8900000000001"/>
     <n v="7"/>
     <n v="0.15"/>
-    <d v="2024-10-16T00:00:00"/>
+    <x v="76"/>
     <n v="553.29999999999995"/>
   </r>
   <r>
@@ -3722,7 +5698,7 @@
     <n v="980.18"/>
     <n v="16"/>
     <n v="0.1"/>
-    <d v="2024-10-17T00:00:00"/>
+    <x v="77"/>
     <n v="352.86"/>
   </r>
   <r>
@@ -3733,7 +5709,7 @@
     <n v="697.57"/>
     <n v="17"/>
     <n v="0.1"/>
-    <d v="2024-10-19T00:00:00"/>
+    <x v="78"/>
     <n v="313.91000000000003"/>
   </r>
   <r>
@@ -3744,7 +5720,7 @@
     <n v="1193.6099999999999"/>
     <n v="1"/>
     <n v="0.15"/>
-    <d v="2024-10-19T00:00:00"/>
+    <x v="78"/>
     <n v="355.1"/>
   </r>
   <r>
@@ -3755,7 +5731,7 @@
     <n v="771.02"/>
     <n v="1"/>
     <n v="0"/>
-    <d v="2024-10-20T00:00:00"/>
+    <x v="79"/>
     <n v="192.76"/>
   </r>
   <r>
@@ -3766,7 +5742,7 @@
     <n v="661.09"/>
     <n v="1"/>
     <n v="0.2"/>
-    <d v="2024-10-28T00:00:00"/>
+    <x v="80"/>
     <n v="264.44"/>
   </r>
   <r>
@@ -3777,7 +5753,7 @@
     <n v="688.83"/>
     <n v="15"/>
     <n v="0"/>
-    <d v="2024-10-30T00:00:00"/>
+    <x v="81"/>
     <n v="172.21"/>
   </r>
   <r>
@@ -3788,7 +5764,7 @@
     <n v="1249.0999999999999"/>
     <n v="4"/>
     <n v="0.05"/>
-    <d v="2024-11-01T00:00:00"/>
+    <x v="82"/>
     <n v="474.66"/>
   </r>
   <r>
@@ -3799,7 +5775,7 @@
     <n v="1014.22"/>
     <n v="14"/>
     <n v="0.05"/>
-    <d v="2024-11-03T00:00:00"/>
+    <x v="83"/>
     <n v="433.58"/>
   </r>
   <r>
@@ -3810,7 +5786,7 @@
     <n v="957.29"/>
     <n v="4"/>
     <n v="0.05"/>
-    <d v="2024-11-09T00:00:00"/>
+    <x v="84"/>
     <n v="318.3"/>
   </r>
   <r>
@@ -3821,7 +5797,7 @@
     <n v="1010.58"/>
     <n v="2"/>
     <n v="0.15"/>
-    <d v="2024-11-09T00:00:00"/>
+    <x v="84"/>
     <n v="343.6"/>
   </r>
   <r>
@@ -3832,7 +5808,7 @@
     <n v="1077.92"/>
     <n v="3"/>
     <n v="0.05"/>
-    <d v="2024-11-12T00:00:00"/>
+    <x v="85"/>
     <n v="358.41"/>
   </r>
   <r>
@@ -3843,7 +5819,7 @@
     <n v="1163.01"/>
     <n v="5"/>
     <n v="0"/>
-    <d v="2024-11-15T00:00:00"/>
+    <x v="86"/>
     <n v="581.5"/>
   </r>
   <r>
@@ -3854,7 +5830,7 @@
     <n v="1014.56"/>
     <n v="10"/>
     <n v="0.1"/>
-    <d v="2024-11-16T00:00:00"/>
+    <x v="87"/>
     <n v="410.9"/>
   </r>
   <r>
@@ -3865,7 +5841,7 @@
     <n v="706.73"/>
     <n v="1"/>
     <n v="0.15"/>
-    <d v="2024-11-17T00:00:00"/>
+    <x v="88"/>
     <n v="150.18"/>
   </r>
   <r>
@@ -3876,7 +5852,7 @@
     <n v="718.04"/>
     <n v="14"/>
     <n v="0"/>
-    <d v="2024-11-17T00:00:00"/>
+    <x v="88"/>
     <n v="179.51"/>
   </r>
   <r>
@@ -3887,7 +5863,7 @@
     <n v="1277.8499999999999"/>
     <n v="18"/>
     <n v="0.2"/>
-    <d v="2024-11-17T00:00:00"/>
+    <x v="88"/>
     <n v="511.14"/>
   </r>
   <r>
@@ -3898,7 +5874,7 @@
     <n v="919.18"/>
     <n v="4"/>
     <n v="0.15"/>
-    <d v="2024-11-19T00:00:00"/>
+    <x v="89"/>
     <n v="195.33"/>
   </r>
   <r>
@@ -3909,7 +5885,7 @@
     <n v="1350.33"/>
     <n v="10"/>
     <n v="0"/>
-    <d v="2024-11-19T00:00:00"/>
+    <x v="89"/>
     <n v="472.62"/>
   </r>
   <r>
@@ -3920,7 +5896,7 @@
     <n v="1410.59"/>
     <n v="15"/>
     <n v="0"/>
-    <d v="2024-11-19T00:00:00"/>
+    <x v="89"/>
     <n v="352.65"/>
   </r>
   <r>
@@ -3931,7 +5907,7 @@
     <n v="258.51"/>
     <n v="19"/>
     <n v="0"/>
-    <d v="2024-11-20T00:00:00"/>
+    <x v="90"/>
     <n v="64.63"/>
   </r>
   <r>
@@ -3942,7 +5918,7 @@
     <n v="1213.48"/>
     <n v="5"/>
     <n v="0.05"/>
-    <d v="2024-11-20T00:00:00"/>
+    <x v="90"/>
     <n v="461.12"/>
   </r>
   <r>
@@ -3953,7 +5929,7 @@
     <n v="1150.28"/>
     <n v="8"/>
     <n v="0.05"/>
-    <d v="2024-11-26T00:00:00"/>
+    <x v="91"/>
     <n v="437.11"/>
   </r>
   <r>
@@ -3964,7 +5940,7 @@
     <n v="853.86"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2024-11-26T00:00:00"/>
+    <x v="91"/>
     <n v="268.97000000000003"/>
   </r>
   <r>
@@ -3975,7 +5951,7 @@
     <n v="1061.04"/>
     <n v="1"/>
     <n v="0"/>
-    <d v="2024-11-28T00:00:00"/>
+    <x v="92"/>
     <n v="265.26"/>
   </r>
   <r>
@@ -3986,7 +5962,7 @@
     <n v="894.55"/>
     <n v="19"/>
     <n v="0.2"/>
-    <d v="2024-11-29T00:00:00"/>
+    <x v="93"/>
     <n v="178.91"/>
   </r>
   <r>
@@ -3997,7 +5973,7 @@
     <n v="833.91"/>
     <n v="3"/>
     <n v="0.05"/>
-    <d v="2024-11-30T00:00:00"/>
+    <x v="94"/>
     <n v="356.5"/>
   </r>
   <r>
@@ -4008,7 +5984,7 @@
     <n v="820.19"/>
     <n v="4"/>
     <n v="0.2"/>
-    <d v="2024-12-04T00:00:00"/>
+    <x v="95"/>
     <n v="229.65"/>
   </r>
   <r>
@@ -4019,7 +5995,7 @@
     <n v="511.74"/>
     <n v="8"/>
     <n v="0.05"/>
-    <d v="2024-12-05T00:00:00"/>
+    <x v="96"/>
     <n v="121.54"/>
   </r>
   <r>
@@ -4030,7 +6006,7 @@
     <n v="806.03"/>
     <n v="19"/>
     <n v="0.05"/>
-    <d v="2024-12-12T00:00:00"/>
+    <x v="97"/>
     <n v="268"/>
   </r>
   <r>
@@ -4041,7 +6017,7 @@
     <n v="1488.58"/>
     <n v="10"/>
     <n v="0.15"/>
-    <d v="2024-12-14T00:00:00"/>
+    <x v="98"/>
     <n v="316.32"/>
   </r>
   <r>
@@ -4052,7 +6028,7 @@
     <n v="1432.47"/>
     <n v="16"/>
     <n v="0.15"/>
-    <d v="2024-12-14T00:00:00"/>
+    <x v="98"/>
     <n v="426.16"/>
   </r>
   <r>
@@ -4063,7 +6039,7 @@
     <n v="1231.26"/>
     <n v="9"/>
     <n v="0"/>
-    <d v="2024-12-20T00:00:00"/>
+    <x v="99"/>
     <n v="492.5"/>
   </r>
   <r>
@@ -4074,7 +6050,7 @@
     <n v="1161.67"/>
     <n v="19"/>
     <n v="0.2"/>
-    <d v="2024-12-21T00:00:00"/>
+    <x v="100"/>
     <n v="232.33"/>
   </r>
   <r>
@@ -4085,7 +6061,7 @@
     <n v="388.23"/>
     <n v="16"/>
     <n v="0.05"/>
-    <d v="2024-12-24T00:00:00"/>
+    <x v="101"/>
     <n v="165.97"/>
   </r>
   <r>
@@ -4096,7 +6072,7 @@
     <n v="1589.42"/>
     <n v="6"/>
     <n v="0.15"/>
-    <d v="2024-12-25T00:00:00"/>
+    <x v="102"/>
     <n v="675.5"/>
   </r>
   <r>
@@ -4107,7 +6083,7 @@
     <n v="336.66"/>
     <n v="13"/>
     <n v="0.2"/>
-    <d v="2024-12-25T00:00:00"/>
+    <x v="102"/>
     <n v="134.66"/>
   </r>
   <r>
@@ -4118,7 +6094,7 @@
     <n v="1353.79"/>
     <n v="14"/>
     <n v="0.1"/>
-    <d v="2024-12-30T00:00:00"/>
+    <x v="103"/>
     <n v="487.36"/>
   </r>
   <r>
@@ -4129,7 +6105,7 @@
     <n v="309.42"/>
     <n v="1"/>
     <n v="0.2"/>
-    <d v="2025-01-01T00:00:00"/>
+    <x v="104"/>
     <n v="111.39"/>
   </r>
   <r>
@@ -4140,7 +6116,7 @@
     <n v="662.61"/>
     <n v="11"/>
     <n v="0.05"/>
-    <d v="2025-01-01T00:00:00"/>
+    <x v="104"/>
     <n v="314.74"/>
   </r>
   <r>
@@ -4151,7 +6127,7 @@
     <n v="884.63"/>
     <n v="18"/>
     <n v="0.1"/>
-    <d v="2025-01-02T00:00:00"/>
+    <x v="105"/>
     <n v="318.47000000000003"/>
   </r>
   <r>
@@ -4162,7 +6138,7 @@
     <n v="745.05"/>
     <n v="10"/>
     <n v="0.1"/>
-    <d v="2025-01-03T00:00:00"/>
+    <x v="106"/>
     <n v="301.75"/>
   </r>
   <r>
@@ -4173,7 +6149,7 @@
     <n v="870.23"/>
     <n v="5"/>
     <n v="0.05"/>
-    <d v="2025-01-03T00:00:00"/>
+    <x v="106"/>
     <n v="413.36"/>
   </r>
   <r>
@@ -4184,7 +6160,7 @@
     <n v="862.19"/>
     <n v="18"/>
     <n v="0.05"/>
-    <d v="2025-01-06T00:00:00"/>
+    <x v="107"/>
     <n v="286.68"/>
   </r>
   <r>
@@ -4195,7 +6171,7 @@
     <n v="1171.18"/>
     <n v="19"/>
     <n v="0.05"/>
-    <d v="2025-01-10T00:00:00"/>
+    <x v="108"/>
     <n v="556.30999999999995"/>
   </r>
   <r>
@@ -4206,7 +6182,7 @@
     <n v="1054.56"/>
     <n v="11"/>
     <n v="0.1"/>
-    <d v="2025-01-12T00:00:00"/>
+    <x v="109"/>
     <n v="332.19"/>
   </r>
   <r>
@@ -4217,7 +6193,7 @@
     <n v="1681.21"/>
     <n v="5"/>
     <n v="0.2"/>
-    <d v="2025-01-13T00:00:00"/>
+    <x v="110"/>
     <n v="336.24"/>
   </r>
   <r>
@@ -4228,7 +6204,7 @@
     <n v="379.77"/>
     <n v="9"/>
     <n v="0.05"/>
-    <d v="2025-01-16T00:00:00"/>
+    <x v="111"/>
     <n v="180.39"/>
   </r>
   <r>
@@ -4239,7 +6215,7 @@
     <n v="1118.3399999999999"/>
     <n v="6"/>
     <n v="0.2"/>
-    <d v="2025-01-17T00:00:00"/>
+    <x v="112"/>
     <n v="447.34"/>
   </r>
   <r>
@@ -4250,7 +6226,7 @@
     <n v="1076.33"/>
     <n v="2"/>
     <n v="0.1"/>
-    <d v="2025-01-17T00:00:00"/>
+    <x v="112"/>
     <n v="484.35"/>
   </r>
   <r>
@@ -4261,7 +6237,7 @@
     <n v="1250.71"/>
     <n v="7"/>
     <n v="0"/>
-    <d v="2025-01-17T00:00:00"/>
+    <x v="112"/>
     <n v="562.82000000000005"/>
   </r>
   <r>
@@ -4272,7 +6248,7 @@
     <n v="1622.62"/>
     <n v="12"/>
     <n v="0.2"/>
-    <d v="2025-01-20T00:00:00"/>
+    <x v="113"/>
     <n v="649.04999999999995"/>
   </r>
   <r>
@@ -4283,7 +6259,7 @@
     <n v="640.64"/>
     <n v="11"/>
     <n v="0.2"/>
-    <d v="2025-01-21T00:00:00"/>
+    <x v="114"/>
     <n v="205"/>
   </r>
   <r>
@@ -4294,7 +6270,7 @@
     <n v="585.16"/>
     <n v="17"/>
     <n v="0.1"/>
-    <d v="2025-01-27T00:00:00"/>
+    <x v="115"/>
     <n v="263.32"/>
   </r>
   <r>
@@ -4305,7 +6281,7 @@
     <n v="1109.98"/>
     <n v="5"/>
     <n v="0.2"/>
-    <d v="2025-02-02T00:00:00"/>
+    <x v="116"/>
     <n v="443.99"/>
   </r>
   <r>
@@ -4316,7 +6292,7 @@
     <n v="1098.08"/>
     <n v="9"/>
     <n v="0.1"/>
-    <d v="2025-02-04T00:00:00"/>
+    <x v="117"/>
     <n v="395.31"/>
   </r>
   <r>
@@ -4327,7 +6303,7 @@
     <n v="827.25"/>
     <n v="7"/>
     <n v="0.1"/>
-    <d v="2025-02-05T00:00:00"/>
+    <x v="118"/>
     <n v="335.04"/>
   </r>
   <r>
@@ -4338,7 +6314,7 @@
     <n v="741.88"/>
     <n v="16"/>
     <n v="0.1"/>
-    <d v="2025-02-07T00:00:00"/>
+    <x v="119"/>
     <n v="333.85"/>
   </r>
   <r>
@@ -4349,7 +6325,7 @@
     <n v="1311.26"/>
     <n v="6"/>
     <n v="0.1"/>
-    <d v="2025-02-10T00:00:00"/>
+    <x v="120"/>
     <n v="531.05999999999995"/>
   </r>
   <r>
@@ -4360,7 +6336,7 @@
     <n v="573.32000000000005"/>
     <n v="19"/>
     <n v="0.1"/>
-    <d v="2025-02-15T00:00:00"/>
+    <x v="121"/>
     <n v="232.19"/>
   </r>
   <r>
@@ -4371,7 +6347,7 @@
     <n v="1115.22"/>
     <n v="14"/>
     <n v="0.2"/>
-    <d v="2025-02-17T00:00:00"/>
+    <x v="122"/>
     <n v="223.04"/>
   </r>
   <r>
@@ -4382,7 +6358,7 @@
     <n v="845.84"/>
     <n v="4"/>
     <n v="0"/>
-    <d v="2025-02-19T00:00:00"/>
+    <x v="123"/>
     <n v="422.92"/>
   </r>
   <r>
@@ -4393,7 +6369,7 @@
     <n v="1029.8"/>
     <n v="3"/>
     <n v="0"/>
-    <d v="2025-02-20T00:00:00"/>
+    <x v="124"/>
     <n v="257.45"/>
   </r>
   <r>
@@ -4404,7 +6380,7 @@
     <n v="1189.83"/>
     <n v="2"/>
     <n v="0.2"/>
-    <d v="2025-02-21T00:00:00"/>
+    <x v="125"/>
     <n v="380.75"/>
   </r>
   <r>
@@ -4415,7 +6391,7 @@
     <n v="704.28"/>
     <n v="15"/>
     <n v="0.2"/>
-    <d v="2025-02-24T00:00:00"/>
+    <x v="126"/>
     <n v="225.37"/>
   </r>
   <r>
@@ -4426,7 +6402,7 @@
     <n v="1618.22"/>
     <n v="12"/>
     <n v="0.2"/>
-    <d v="2025-02-24T00:00:00"/>
+    <x v="126"/>
     <n v="582.55999999999995"/>
   </r>
   <r>
@@ -4437,7 +6413,7 @@
     <n v="1014.43"/>
     <n v="2"/>
     <n v="0.15"/>
-    <d v="2025-02-25T00:00:00"/>
+    <x v="127"/>
     <n v="344.91"/>
   </r>
   <r>
@@ -4448,7 +6424,7 @@
     <n v="826.97"/>
     <n v="18"/>
     <n v="0.2"/>
-    <d v="2025-02-27T00:00:00"/>
+    <x v="128"/>
     <n v="330.79"/>
   </r>
   <r>
@@ -4459,7 +6435,7 @@
     <n v="1022.23"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2025-03-01T00:00:00"/>
+    <x v="129"/>
     <n v="460"/>
   </r>
   <r>
@@ -4470,7 +6446,7 @@
     <n v="1099.69"/>
     <n v="6"/>
     <n v="0"/>
-    <d v="2025-03-02T00:00:00"/>
+    <x v="130"/>
     <n v="439.88"/>
   </r>
   <r>
@@ -4481,7 +6457,7 @@
     <n v="710.52"/>
     <n v="8"/>
     <n v="0.1"/>
-    <d v="2025-03-05T00:00:00"/>
+    <x v="131"/>
     <n v="255.79"/>
   </r>
   <r>
@@ -4492,7 +6468,7 @@
     <n v="499.18"/>
     <n v="15"/>
     <n v="0.2"/>
-    <d v="2025-03-08T00:00:00"/>
+    <x v="132"/>
     <n v="159.74"/>
   </r>
   <r>
@@ -4503,7 +6479,7 @@
     <n v="1064.19"/>
     <n v="18"/>
     <n v="0.05"/>
-    <d v="2025-03-09T00:00:00"/>
+    <x v="133"/>
     <n v="404.39"/>
   </r>
   <r>
@@ -4514,7 +6490,7 @@
     <n v="438.76"/>
     <n v="18"/>
     <n v="0.05"/>
-    <d v="2025-03-10T00:00:00"/>
+    <x v="134"/>
     <n v="187.57"/>
   </r>
   <r>
@@ -4525,7 +6501,7 @@
     <n v="864.98"/>
     <n v="2"/>
     <n v="0.05"/>
-    <d v="2025-03-11T00:00:00"/>
+    <x v="135"/>
     <n v="410.87"/>
   </r>
   <r>
@@ -4536,7 +6512,7 @@
     <n v="984.93"/>
     <n v="14"/>
     <n v="0.2"/>
-    <d v="2025-03-17T00:00:00"/>
+    <x v="136"/>
     <n v="275.77999999999997"/>
   </r>
   <r>
@@ -4547,7 +6523,7 @@
     <n v="1493.49"/>
     <n v="18"/>
     <n v="0"/>
-    <d v="2025-03-18T00:00:00"/>
+    <x v="137"/>
     <n v="746.74"/>
   </r>
   <r>
@@ -4558,7 +6534,7 @@
     <n v="689.43"/>
     <n v="9"/>
     <n v="0.1"/>
-    <d v="2025-03-20T00:00:00"/>
+    <x v="138"/>
     <n v="310.24"/>
   </r>
   <r>
@@ -4569,7 +6545,7 @@
     <n v="682.24"/>
     <n v="1"/>
     <n v="0"/>
-    <d v="2025-03-22T00:00:00"/>
+    <x v="139"/>
     <n v="341.12"/>
   </r>
   <r>
@@ -4580,7 +6556,7 @@
     <n v="458.54"/>
     <n v="15"/>
     <n v="0.2"/>
-    <d v="2025-03-25T00:00:00"/>
+    <x v="140"/>
     <n v="91.71"/>
   </r>
   <r>
@@ -4591,7 +6567,7 @@
     <n v="1184.25"/>
     <n v="11"/>
     <n v="0.2"/>
-    <d v="2025-03-26T00:00:00"/>
+    <x v="141"/>
     <n v="331.59"/>
   </r>
   <r>
@@ -4602,7 +6578,7 @@
     <n v="750.71"/>
     <n v="10"/>
     <n v="0.15"/>
-    <d v="2025-03-27T00:00:00"/>
+    <x v="142"/>
     <n v="255.24"/>
   </r>
   <r>
@@ -4613,7 +6589,7 @@
     <n v="762.14"/>
     <n v="9"/>
     <n v="0"/>
-    <d v="2025-03-27T00:00:00"/>
+    <x v="142"/>
     <n v="381.07"/>
   </r>
   <r>
@@ -4624,7 +6600,7 @@
     <n v="1456.94"/>
     <n v="14"/>
     <n v="0.05"/>
-    <d v="2025-03-29T00:00:00"/>
+    <x v="143"/>
     <n v="692.05"/>
   </r>
   <r>
@@ -4635,7 +6611,7 @@
     <n v="1093.3800000000001"/>
     <n v="17"/>
     <n v="0.1"/>
-    <d v="2025-03-29T00:00:00"/>
+    <x v="143"/>
     <n v="344.41"/>
   </r>
   <r>
@@ -4646,7 +6622,7 @@
     <n v="1465.35"/>
     <n v="8"/>
     <n v="0.2"/>
-    <d v="2025-03-30T00:00:00"/>
+    <x v="144"/>
     <n v="586.14"/>
   </r>
   <r>
@@ -4657,7 +6633,7 @@
     <n v="934.27"/>
     <n v="8"/>
     <n v="0.15"/>
-    <d v="2025-03-30T00:00:00"/>
+    <x v="144"/>
     <n v="397.06"/>
   </r>
   <r>
@@ -4668,7 +6644,7 @@
     <n v="740.8"/>
     <n v="3"/>
     <n v="0"/>
-    <d v="2025-04-02T00:00:00"/>
+    <x v="145"/>
     <n v="333.36"/>
   </r>
   <r>
@@ -4679,7 +6655,7 @@
     <n v="545.44000000000005"/>
     <n v="17"/>
     <n v="0"/>
-    <d v="2025-04-05T00:00:00"/>
+    <x v="146"/>
     <n v="245.45"/>
   </r>
   <r>
@@ -4690,7 +6666,7 @@
     <n v="997.61"/>
     <n v="8"/>
     <n v="0.05"/>
-    <d v="2025-04-05T00:00:00"/>
+    <x v="146"/>
     <n v="379.09"/>
   </r>
   <r>
@@ -4701,14 +6677,266 @@
     <n v="928.32"/>
     <n v="2"/>
     <n v="0.05"/>
-    <d v="2025-04-07T00:00:00"/>
+    <x v="147"/>
     <n v="440.95"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A10:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="149">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4736,7 +6964,159 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0">
+      <items count="149">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
@@ -4789,7 +7169,7 @@
   <dataFields count="1">
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="20">
+  <chartFormats count="15">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -4850,7 +7230,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
+    <chartFormat chart="9" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4862,7 +7242,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
+    <chartFormat chart="9" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4874,7 +7254,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
+    <chartFormat chart="9" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4886,7 +7266,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
+    <chartFormat chart="9" format="13" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4898,7 +7278,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
+    <chartFormat chart="9" format="14" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4910,7 +7290,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
+    <chartFormat chart="11" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4922,7 +7302,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
+    <chartFormat chart="11" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4934,7 +7314,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
+    <chartFormat chart="11" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4946,7 +7326,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
+    <chartFormat chart="11" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4958,67 +7338,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
+    <chartFormat chart="11" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5038,6 +7358,175 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Order_Date" sourceName="Order_Date">
+  <pivotTables>
+    <pivotTable tabId="11" name="PivotTable1"/>
+    <pivotTable tabId="11" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="148">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="12" s="1"/>
+        <i x="13" s="1"/>
+        <i x="14" s="1"/>
+        <i x="15" s="1"/>
+        <i x="16" s="1"/>
+        <i x="17" s="1"/>
+        <i x="18" s="1"/>
+        <i x="19" s="1"/>
+        <i x="20" s="1"/>
+        <i x="21" s="1"/>
+        <i x="22" s="1"/>
+        <i x="23" s="1"/>
+        <i x="24" s="1"/>
+        <i x="25" s="1"/>
+        <i x="26" s="1"/>
+        <i x="27" s="1"/>
+        <i x="28" s="1"/>
+        <i x="29" s="1"/>
+        <i x="30" s="1"/>
+        <i x="31" s="1"/>
+        <i x="32" s="1"/>
+        <i x="33" s="1"/>
+        <i x="34" s="1"/>
+        <i x="35" s="1"/>
+        <i x="36" s="1"/>
+        <i x="37" s="1"/>
+        <i x="38" s="1"/>
+        <i x="39" s="1"/>
+        <i x="40" s="1"/>
+        <i x="41" s="1"/>
+        <i x="42" s="1"/>
+        <i x="43" s="1"/>
+        <i x="44" s="1"/>
+        <i x="45" s="1"/>
+        <i x="46" s="1"/>
+        <i x="47" s="1"/>
+        <i x="48" s="1"/>
+        <i x="49" s="1"/>
+        <i x="50" s="1"/>
+        <i x="51" s="1"/>
+        <i x="52" s="1"/>
+        <i x="53" s="1"/>
+        <i x="54" s="1"/>
+        <i x="55" s="1"/>
+        <i x="56" s="1"/>
+        <i x="57" s="1"/>
+        <i x="58" s="1"/>
+        <i x="59" s="1"/>
+        <i x="60" s="1"/>
+        <i x="61" s="1"/>
+        <i x="62" s="1"/>
+        <i x="63" s="1"/>
+        <i x="64" s="1"/>
+        <i x="65" s="1"/>
+        <i x="66" s="1"/>
+        <i x="67" s="1"/>
+        <i x="68" s="1"/>
+        <i x="69" s="1"/>
+        <i x="70" s="1"/>
+        <i x="71" s="1"/>
+        <i x="72" s="1"/>
+        <i x="73" s="1"/>
+        <i x="74" s="1"/>
+        <i x="75" s="1"/>
+        <i x="76" s="1"/>
+        <i x="77" s="1"/>
+        <i x="78" s="1"/>
+        <i x="79" s="1"/>
+        <i x="80" s="1"/>
+        <i x="81" s="1"/>
+        <i x="82" s="1"/>
+        <i x="83" s="1"/>
+        <i x="84" s="1"/>
+        <i x="85" s="1"/>
+        <i x="86" s="1"/>
+        <i x="87" s="1"/>
+        <i x="88" s="1"/>
+        <i x="89" s="1"/>
+        <i x="90" s="1"/>
+        <i x="91" s="1"/>
+        <i x="92" s="1"/>
+        <i x="93" s="1"/>
+        <i x="94" s="1"/>
+        <i x="95" s="1"/>
+        <i x="96" s="1"/>
+        <i x="97" s="1"/>
+        <i x="98" s="1"/>
+        <i x="99" s="1"/>
+        <i x="100" s="1"/>
+        <i x="101" s="1"/>
+        <i x="102" s="1"/>
+        <i x="103" s="1"/>
+        <i x="104" s="1"/>
+        <i x="105" s="1"/>
+        <i x="106" s="1"/>
+        <i x="107" s="1"/>
+        <i x="108" s="1"/>
+        <i x="109" s="1"/>
+        <i x="110" s="1"/>
+        <i x="111" s="1"/>
+        <i x="112" s="1"/>
+        <i x="113" s="1"/>
+        <i x="114" s="1"/>
+        <i x="115" s="1"/>
+        <i x="116" s="1"/>
+        <i x="117" s="1"/>
+        <i x="118" s="1"/>
+        <i x="119" s="1"/>
+        <i x="120" s="1"/>
+        <i x="121" s="1"/>
+        <i x="122" s="1"/>
+        <i x="123" s="1"/>
+        <i x="124" s="1"/>
+        <i x="125" s="1"/>
+        <i x="126" s="1"/>
+        <i x="127" s="1"/>
+        <i x="128" s="1"/>
+        <i x="129" s="1"/>
+        <i x="130" s="1"/>
+        <i x="131" s="1"/>
+        <i x="132" s="1"/>
+        <i x="133" s="1"/>
+        <i x="134" s="1"/>
+        <i x="135" s="1"/>
+        <i x="136" s="1"/>
+        <i x="137" s="1"/>
+        <i x="138" s="1"/>
+        <i x="139" s="1"/>
+        <i x="140" s="1"/>
+        <i x="141" s="1"/>
+        <i x="142" s="1"/>
+        <i x="143" s="1"/>
+        <i x="144" s="1"/>
+        <i x="145" s="1"/>
+        <i x="146" s="1"/>
+        <i x="147" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Order_Date" cache="Slicer_Order_Date" caption="Order_Date" startItem="7" rowHeight="234950"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5261,7 +7750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z947"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -31178,16 +33667,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J10" sqref="J10:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
     <col min="8" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -31363,6 +33854,62 @@
         <v>195217.76</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="32">
+        <v>47002.460000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="32">
+        <v>41927.589999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="32">
+        <v>41044.000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="32">
+        <v>36612.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="32">
+        <v>28630.819999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="32">
+        <v>195217.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31372,8 +33919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31383,12 +33930,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38062,7 +40632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
@@ -40571,7 +43141,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41606,9 +44176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43658,7 +46226,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f ca="1">NOW()</f>
-        <v>45907.922959374999</v>
+        <v>45908.878307407409</v>
       </c>
     </row>
   </sheetData>
@@ -43671,7 +46239,7 @@
   <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PR. 2 Analyzer (1).xlsx
+++ b/PR. 2 Analyzer (1).xlsx
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1117,7 +1117,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1189,7 +1188,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
           </c:spPr>
@@ -1218,7 +1216,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1245,7 +1242,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1272,7 +1268,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1299,7 +1294,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1779,12 +1773,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="142750080"/>
-        <c:axId val="142751616"/>
+        <c:axId val="221607808"/>
+        <c:axId val="221609344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="142750080"/>
+        <c:axId val="221607808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142751616"/>
+        <c:crossAx val="221609344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142751616"/>
+        <c:axId val="221609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142750080"/>
+        <c:crossAx val="221607808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,7 +1906,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2089,11 +2082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142917632"/>
-        <c:axId val="142919168"/>
+        <c:axId val="221450624"/>
+        <c:axId val="221452160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142917632"/>
+        <c:axId val="221450624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142919168"/>
+        <c:crossAx val="221452160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142919168"/>
+        <c:axId val="221452160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142917632"/>
+        <c:crossAx val="221450624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,7 +2188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2219,7 +2211,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -3340,12 +3331,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="172983424"/>
-        <c:axId val="172984960"/>
+        <c:axId val="220517120"/>
+        <c:axId val="220518656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="172983424"/>
+        <c:axId val="220517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172984960"/>
+        <c:crossAx val="220518656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3372,7 +3363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172984960"/>
+        <c:axId val="220518656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,7 +3373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172983424"/>
+        <c:crossAx val="220517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3660,11 +3651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233518976"/>
-        <c:axId val="233520512"/>
+        <c:axId val="220552192"/>
+        <c:axId val="220553984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233518976"/>
+        <c:axId val="220552192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233520512"/>
+        <c:crossAx val="220553984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3681,7 +3672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233520512"/>
+        <c:axId val="220553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233518976"/>
+        <c:crossAx val="220552192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4212,8 +4203,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Order_Date"/>
@@ -4230,7 +4221,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6684,7 +6675,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A10:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6936,7 +6927,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -46226,7 +46217,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f ca="1">NOW()</f>
-        <v>45908.878307407409</v>
+        <v>45908.881131712966</v>
       </c>
     </row>
   </sheetData>
